--- a/data/trans_dic/P36BPD13_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9395224137784177</v>
+        <v>0.9383887855945144</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9705294424668746</v>
+        <v>0.9684828667959136</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9598225325739471</v>
+        <v>0.9595901819398859</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9808061784846419</v>
+        <v>0.9812358035516197</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9923464880403094</v>
+        <v>0.9920846283522118</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9839985825530509</v>
+        <v>0.9828054654576425</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.6144539753588948</v>
+        <v>0.6144539753588946</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.7526900813576081</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.562618137679922</v>
+        <v>0.5580233590040544</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7170280470503323</v>
+        <v>0.7191193344108747</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6559292028242413</v>
+        <v>0.6511853152111058</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6684478649733345</v>
+        <v>0.6631946048101057</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.786454229871582</v>
+        <v>0.7854978516371705</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7184231992156479</v>
+        <v>0.7119684178804602</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.9106144951212032</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8831249502844235</v>
+        <v>0.8831249502844238</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8078324270279752</v>
+        <v>0.807297216064375</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8831978032424606</v>
+        <v>0.8830066177567047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8581893062782533</v>
+        <v>0.8579076073042872</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8881236155059458</v>
+        <v>0.8872622001682285</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9361448608511936</v>
+        <v>0.9308900072475433</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9060640239713976</v>
+        <v>0.9054358454610035</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8950448901364167</v>
+        <v>0.8950448901364169</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.938908651535587</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8460773650752892</v>
+        <v>0.8457043290190935</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9183248938498305</v>
+        <v>0.9186401369188785</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.892956378617817</v>
+        <v>0.8934082483600946</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9284223361413995</v>
+        <v>0.9328549737383482</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9569510142244929</v>
+        <v>0.9570829813766607</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9379365790115746</v>
+        <v>0.936679297777806</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9773474152451129</v>
+        <v>0.977347415245113</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.9552412718603296</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9657529588619033</v>
+        <v>0.965752958861903</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9532615058622194</v>
+        <v>0.9531797676155589</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9322237250943997</v>
+        <v>0.9304912728043166</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.949940929891678</v>
+        <v>0.9496208713360332</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9901603861201952</v>
+        <v>0.9915522290640069</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9714451383118567</v>
+        <v>0.9710521625723533</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9779022023274185</v>
+        <v>0.9770981854007305</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.928578120349137</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9639145729833408</v>
+        <v>0.9639145729833406</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9460429214604865</v>
+        <v>0.9460429214604863</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8928002144690645</v>
+        <v>0.8958106077089754</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9403487746442815</v>
+        <v>0.9425382871673111</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9276486533052233</v>
+        <v>0.9261889588681317</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9528291954740871</v>
+        <v>0.9535205382189273</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9790584772235352</v>
+        <v>0.9782939065946173</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9620911625394605</v>
+        <v>0.960903654288024</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.798452429625966</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8039912407993768</v>
+        <v>0.803991240799377</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8013018394098345</v>
+        <v>0.8013018394098343</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7624352542894711</v>
+        <v>0.7594945949288461</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7757403113080089</v>
+        <v>0.77502472020659</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.77688806877629</v>
+        <v>0.7774274960846964</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8328596948481699</v>
+        <v>0.8294021162123567</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8325133031701104</v>
+        <v>0.8321029966986634</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8225509905060815</v>
+        <v>0.8224700985712456</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.9053889722413352</v>
+        <v>0.9053889722413351</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.8934188983592447</v>
+        <v>0.893418898359245</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8992799549238524</v>
+        <v>0.8992799549238523</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8817071884546696</v>
+        <v>0.8809997954054244</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8711383588766592</v>
+        <v>0.8698989255274849</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8844443122010907</v>
+        <v>0.8820008983392307</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9240463528789621</v>
+        <v>0.9242554808557872</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9121883863063799</v>
+        <v>0.9129773402193849</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9125862918421489</v>
+        <v>0.9125630175360878</v>
       </c>
     </row>
     <row r="28">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.845326425780371</v>
+        <v>0.8453264257803711</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.8776239074018507</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8619083928919502</v>
+        <v>0.8619083928919503</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.829873321678135</v>
+        <v>0.8322776823095459</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8678371637941322</v>
+        <v>0.8669858608423148</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8529940363236866</v>
+        <v>0.8535154489204244</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8570653298676769</v>
+        <v>0.8587730435523189</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8875238759770414</v>
+        <v>0.8864671590060592</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8703435441922889</v>
+        <v>0.8701367789118254</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>298400</v>
+        <v>298040</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>306747</v>
+        <v>306100</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>608210</v>
+        <v>608063</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>311512</v>
+        <v>311648</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>313642</v>
+        <v>313559</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>623529</v>
+        <v>622773</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>297828</v>
+        <v>295396</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>391362</v>
+        <v>392503</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>705237</v>
+        <v>700136</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>353850</v>
+        <v>351069</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>429255</v>
+        <v>428733</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>772429</v>
+        <v>765489</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>248820</v>
+        <v>248656</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>306975</v>
+        <v>306908</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>562613</v>
+        <v>562429</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>273551</v>
+        <v>273286</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>325378</v>
+        <v>323551</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>593999</v>
+        <v>593587</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>313480</v>
+        <v>313342</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>384280</v>
+        <v>384412</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>704513</v>
+        <v>704870</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>343990</v>
+        <v>345632</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>400444</v>
+        <v>400499</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>740001</v>
+        <v>739009</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>195356</v>
+        <v>195339</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>210723</v>
+        <v>210331</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>409403</v>
+        <v>409265</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>202918</v>
+        <v>203203</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>219588</v>
+        <v>219500</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>421453</v>
+        <v>421107</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>240962</v>
+        <v>241775</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>248017</v>
+        <v>248594</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>495035</v>
+        <v>494256</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>257164</v>
+        <v>257350</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>258227</v>
+        <v>258025</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>513415</v>
+        <v>512781</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>545174</v>
+        <v>543071</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>587689</v>
+        <v>587147</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1144068</v>
+        <v>1144862</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>595530</v>
+        <v>593058</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>630700</v>
+        <v>630389</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1211312</v>
+        <v>1211193</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>701975</v>
+        <v>701412</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>722903</v>
+        <v>721874</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1438098</v>
+        <v>1434126</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>735683</v>
+        <v>735850</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>756968</v>
+        <v>757622</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1483857</v>
+        <v>1483819</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2914113</v>
+        <v>2922556</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3215438</v>
+        <v>3212284</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>6155744</v>
+        <v>6159507</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3009598</v>
+        <v>3015594</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3288380</v>
+        <v>3284465</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6280949</v>
+        <v>6279457</v>
       </c>
     </row>
     <row r="40">
